--- a/cpu_timing_with_artificial_load.xlsx
+++ b/cpu_timing_with_artificial_load.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\2021_Spring\ECEN5863\Homework\HW3_Practical\DE1-SoC_v.5.1.2_HWrevF_SystemCD\Demonstrations\SOC_FPGA\my_first_hps-fpga\hps-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B87CA689-69FA-49AE-A061-D01EF7F0A9A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E22DCC3-3BC5-41AF-A162-DFEBBD1B1424}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A47F04EE-CBD8-4DC2-9441-135C479FFFA3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A47F04EE-CBD8-4DC2-9441-135C479FFFA3}"/>
   </bookViews>
   <sheets>
     <sheet name="cpu_timing_artificial_load" sheetId="2" r:id="rId1"/>
@@ -451,9 +451,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2864F18-EFF5-4161-8756-9CB8996A335A}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -464,7 +466,7 @@
     <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,8 +516,12 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f>AVERAGE(D3:D61)</f>
+        <v>6.1498305084745769E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
